--- a/EURent/EURent SIAM module.xlsx
+++ b/EURent/EURent SIAM module.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
   <si>
     <t>Person</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>DL-1235-1263</t>
+  </si>
+  <si>
+    <t>accIsActive</t>
   </si>
 </sst>
 </file>
@@ -715,16 +718,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
@@ -734,7 +737,7 @@
     <col min="9" max="13" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -750,7 +753,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +769,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>IF($B3="","",CONCATENATE($B3," ",$C3))</f>
         <v>Ad Minderbrood</v>
@@ -783,7 +786,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A11" si="0">IF($B4="","",CONCATENATE($B4," ",$C4))</f>
         <v>Rieks Joosten</v>
@@ -800,7 +803,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Richard Enter</v>
@@ -817,7 +820,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Dick River</v>
@@ -834,7 +837,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Amber Dam</v>
@@ -851,7 +854,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Rottie Dam</v>
@@ -868,7 +871,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Dennis Haag</v>
@@ -885,7 +888,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Ute Recht</v>
@@ -902,7 +905,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -915,7 +918,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -925,13 +928,16 @@
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -941,16 +947,19 @@
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
-        <f>IF($B14="","",$B14)</f>
-        <v>TNO</v>
+        <f>IF($C14="","",$C14)</f>
+        <v>Organisatie voor Toegepast Wetenschappelijk Onderzoek</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>16</v>
@@ -958,13 +967,16 @@
       <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -974,386 +986,443 @@
       <c r="C15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="6"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
-        <f>IF($B16="","",$B16)</f>
+        <f>IF($C16="","",$C16)</f>
         <v/>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="2" t="str">
+        <f>$A18</f>
+        <v>Account</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
-        <f t="shared" ref="A19:A20" si="1">IF($B19="","",CONCATENATE("Acc_",$B19))</f>
+        <f t="shared" ref="A19:A20" si="1">IF($C19="","",CONCATENATE("Acc_",$C19))</f>
         <v>Acc_ad</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="8" t="str">
+        <f>$A19</f>
+        <v>Acc_ad</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="8" t="str">
+      <c r="F19" s="8" t="str">
         <f>$A$14</f>
-        <v>TNO</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
+        <v>Organisatie voor Toegepast Wetenschappelijk Onderzoek</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Acc_rieks</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="8" t="str">
+        <f>$A20</f>
+        <v>Acc_rieks</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="8" t="str">
-        <f t="shared" ref="E20" si="2">$A$14</f>
-        <v>TNO</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="8" t="str">
+        <f t="shared" ref="F20" si="2">$A$14</f>
+        <v>Organisatie voor Toegepast Wetenschappelijk Onderzoek</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="2" t="str">
+        <f>$A23</f>
+        <v>Employee</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
-        <f t="shared" ref="A24:A27" si="3">IF($B24="","",CONCATENATE("Acc_",$B24))</f>
+        <f t="shared" ref="A24:A27" si="3">IF($C24="","",CONCATENATE("Acc_",$C24))</f>
         <v>Acc_amber</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="8" t="str">
+        <f t="shared" ref="B24:B27" si="4">$A24</f>
+        <v>Acc_amber</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f t="shared" si="3"/>
         <v>Acc_rottie</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Acc_rottie</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="5"/>
+      <c r="I25" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="str">
         <f t="shared" si="3"/>
         <v>Acc_dennis</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Acc_dennis</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="F26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="5"/>
+      <c r="I26" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="str">
         <f t="shared" si="3"/>
         <v>Acc_ute</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Acc_ute</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="F27" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="5"/>
+      <c r="I27" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="2" t="str">
+        <f>$A30</f>
+        <v>Customer</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="8" t="str">
+        <f t="shared" ref="B31:B32" si="5">$A31</f>
+        <v>Acc_richard</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="str">
-        <f t="shared" ref="A32" si="4">IF($B32="","",CONCATENATE("Acc_",$B32))</f>
+        <f t="shared" ref="A32" si="6">IF($C32="","",CONCATENATE("Acc_",$C32))</f>
         <v>Acc_dick</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Acc_dick</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="5"/>
+      <c r="I32" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>37</v>
       </c>
@@ -1363,13 +1432,13 @@
       <c r="C34" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>40</v>
       </c>
@@ -1379,13 +1448,13 @@
       <c r="C35" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>44</v>
       </c>
@@ -1395,13 +1464,13 @@
       <c r="C36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>46</v>
       </c>
@@ -1411,13 +1480,13 @@
       <c r="C37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
